--- a/plants.xlsx
+++ b/plants.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashanka\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MRAG27\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED995BC-4F81-427F-B039-75DCD87911D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F51798-A7C4-45F6-83D9-3998EC4221D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1341,16 +1341,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1362,6 +1354,20 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1399,19 +1405,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1717,1154 +1724,1255 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C53" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="107" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" customWidth="1"/>
-    <col min="8" max="8" width="20.88671875" customWidth="1"/>
-    <col min="9" max="9" width="25.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" customWidth="1"/>
+    <col min="2" max="3" width="37" customWidth="1"/>
+    <col min="4" max="4" width="42.109375" customWidth="1"/>
+    <col min="5" max="5" width="50.88671875" customWidth="1"/>
+    <col min="6" max="6" width="39.33203125" customWidth="1"/>
+    <col min="7" max="7" width="45.33203125" customWidth="1"/>
+    <col min="8" max="8" width="47.109375" customWidth="1"/>
+    <col min="9" max="9" width="42.77734375" customWidth="1"/>
+    <col min="10" max="10" width="39.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" ht="303" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="J2" t="b">
+      <c r="J2" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="182.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="J3" t="b">
+      <c r="J3" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" ht="188.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="J4" t="b">
+      <c r="J4" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" ht="174" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="J5" t="b">
+      <c r="J5" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" ht="217.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="J6" t="b">
+      <c r="J6" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" ht="181.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="J7" t="b">
+      <c r="J7" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" ht="225" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="J8" t="b">
+      <c r="J8" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" ht="170.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="J9" t="b">
+      <c r="J9" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="J10" t="b">
+      <c r="J10" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="J11" t="b">
+      <c r="J11" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" ht="203.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="J12" t="b">
+      <c r="J12" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" ht="242.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="J13" t="b">
+      <c r="J13" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" ht="161.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="J14" t="b">
+      <c r="J14" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" ht="219" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="J15" t="b">
+      <c r="J15" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" ht="181.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="J16" t="b">
+      <c r="J16" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" ht="174" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="J17" t="b">
+      <c r="J17" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" ht="232.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="J18" t="b">
+      <c r="J18" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" ht="192.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="J19" t="b">
+      <c r="J19" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" ht="178.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="J20" t="b">
+      <c r="J20" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="J21" t="b">
+      <c r="J21" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" ht="304.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="J22" t="b">
+      <c r="J22" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" ht="203.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="J23" t="b">
+      <c r="J23" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" ht="231" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="J24" t="b">
+      <c r="J24" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" ht="169.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="J25" t="b">
+      <c r="J25" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="J26" t="b">
+      <c r="J26" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" ht="167.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="J27" t="b">
+      <c r="J27" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" ht="166.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="J28" t="b">
+      <c r="J28" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" ht="162" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="J29" t="b">
+      <c r="J29" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" ht="212.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="J30" t="b">
+      <c r="J30" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="J31" t="b">
+      <c r="J31" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="J32" t="b">
+      <c r="J32" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="1:13" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="J33" t="b">
+      <c r="J33" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="1:13" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="J34" t="b">
+      <c r="J34" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="1:13" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="J35" t="b">
+      <c r="J35" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="151.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="1:13" ht="149.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>293</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>295</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -2885,11 +2993,14 @@
       <c r="I36" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="J36" t="b">
+      <c r="J36" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="234.6" x14ac:dyDescent="0.3">
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="1:13" ht="136.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>302</v>
       </c>
@@ -2917,11 +3028,14 @@
       <c r="I37" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="J37" t="b">
+      <c r="J37" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="165.6" x14ac:dyDescent="0.3">
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="1:13" ht="127.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>311</v>
       </c>
@@ -2949,11 +3063,14 @@
       <c r="I38" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="J38" t="b">
+      <c r="J38" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="69" x14ac:dyDescent="0.3">
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="1:13" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>320</v>
       </c>
@@ -2978,14 +3095,17 @@
       <c r="H39" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="J39" t="b">
+      <c r="J39" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="1:13" ht="126.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>328</v>
       </c>
@@ -3010,14 +3130,17 @@
       <c r="H40" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="J40" t="b">
+      <c r="J40" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+    </row>
+    <row r="41" spans="1:13" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>336</v>
       </c>
@@ -3042,14 +3165,17 @@
       <c r="H41" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="J41" t="b">
+      <c r="J41" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" spans="1:13" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>344</v>
       </c>
@@ -3074,14 +3200,17 @@
       <c r="H42" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="J42" t="b">
+      <c r="J42" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="345" x14ac:dyDescent="0.3">
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" spans="1:13" ht="156" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>352</v>
       </c>
@@ -3106,14 +3235,17 @@
       <c r="H43" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="J43" t="b">
+      <c r="J43" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" spans="1:13" ht="156" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>360</v>
       </c>
@@ -3138,14 +3270,17 @@
       <c r="H44" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="J44" t="b">
+      <c r="J44" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" ht="165.6" x14ac:dyDescent="0.3">
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" spans="1:13" ht="78" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>368</v>
       </c>
@@ -3170,14 +3305,17 @@
       <c r="H45" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="J45" t="b">
+      <c r="J45" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" ht="138" x14ac:dyDescent="0.3">
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+    </row>
+    <row r="46" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>376</v>
       </c>
@@ -3202,14 +3340,17 @@
       <c r="H46" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="J46" t="b">
+      <c r="J46" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+    </row>
+    <row r="47" spans="1:13" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>384</v>
       </c>
@@ -3234,14 +3375,17 @@
       <c r="H47" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="J47" t="b">
+      <c r="J47" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+    </row>
+    <row r="48" spans="1:13" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>392</v>
       </c>
@@ -3266,14 +3410,17 @@
       <c r="H48" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="J48" t="b">
+      <c r="J48" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+    </row>
+    <row r="49" spans="1:13" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>400</v>
       </c>
@@ -3298,14 +3445,17 @@
       <c r="H49" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="J49" t="b">
+      <c r="J49" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" ht="138" x14ac:dyDescent="0.3">
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+    </row>
+    <row r="50" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>407</v>
       </c>
@@ -3330,14 +3480,17 @@
       <c r="H50" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="J50" t="b">
+      <c r="J50" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+    </row>
+    <row r="51" spans="1:13" ht="156" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>415</v>
       </c>
@@ -3362,14 +3515,17 @@
       <c r="H51" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="J51" t="b">
+      <c r="J51" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" ht="138" x14ac:dyDescent="0.3">
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+    </row>
+    <row r="52" spans="1:13" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>423</v>
       </c>
@@ -3394,14 +3550,17 @@
       <c r="H52" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="J52" t="b">
+      <c r="J52" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" ht="138" x14ac:dyDescent="0.3">
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+    </row>
+    <row r="53" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>431</v>
       </c>
@@ -3426,12 +3585,39 @@
       <c r="H53" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="J53" t="b">
+      <c r="J53" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plants.xlsx
+++ b/plants.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MRAG27\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F51798-A7C4-45F6-83D9-3998EC4221D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E28E41B-5966-408B-883B-A6F3DD65A832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="467">
   <si>
     <t>Plant Name</t>
   </si>
@@ -52,9 +63,6 @@
     <t>Image Missing</t>
   </si>
   <si>
-    <t>Kepula (Ixora)</t>
-  </si>
-  <si>
     <t>Lemon Leaves</t>
   </si>
   <si>
@@ -253,9 +261,6 @@
     <t>Ocimum tenuiflorum</t>
   </si>
   <si>
-    <t>Stomachic, Sedative, Astringent, Antiseptic, Anti-inflammatory</t>
-  </si>
-  <si>
     <t>Antioxidant, Antibacterial, Digestive Aid, Stress Relief</t>
   </si>
   <si>
@@ -280,33 +285,12 @@
     <t>Antioxidant, Anti-diabetic, Digestive aid, Blood purifier, Cardioprotective, Anti-inflammatory, Immune booster</t>
   </si>
   <si>
-    <t>- Anticancer (contains alkaloids like vincristine and vinblastine used in chemotherapy) - Antidiabetic (regulates blood sugar levels) - Antibacterial - Anti-inflammatory - Wound healing - Antioxidant properties</t>
-  </si>
-  <si>
     <t>Immunity booster, Anti-inflammatory, Pain relief, Digestion, Antioxidant properties</t>
   </si>
   <si>
     <t>Rich in iron, vitamins (A, C, K), folate, antioxidants, and fiber. Supports digestion, boosts immunity, promotes healthy skin, and improves vision. Helps regulate blood pressure and supports bone health.</t>
   </si>
   <si>
-    <t>- Boosts platelet count (beneficial for dengue fever) - Regulates blood sugar levels - Supports digestion - Anti-inflammatory properties - Promotes hair growth - Improves skin health - Exhibits anticancer potential</t>
-  </si>
-  <si>
-    <t>- Anti-inflammatory - Anti-viral - Anti-fungal - Anti-pyretic (reduces fever) - Analgesic (pain-relieving) - Immunomodulatory (boosts immunity) - Anti-arthritic - Antioxidant</t>
-  </si>
-  <si>
-    <t>- Anti-inflammatory properties help reduce swelling and pain. - Antioxidant properties protect against free radicals and aging. - Improves digestion by stimulating hydrochloric acid secretion. - Boosts metabolism and aids weight loss. - Has antimicrobial properties that fight infections. - Acts as an expectorant to clear respiratory congestion. - Enhances nutrient absorption, especially curcumin in turmeric.</t>
-  </si>
-  <si>
-    <t>- Aids digestion by promoting bile production and gut health. - Detoxifies liver and kidneys by flushing out toxins. - Boosts immunity due to high vitamin C content. - Anti-inflammatory properties help with arthritis and swelling. - Antibacterial and antifungal properties combat infections. - Supports respiratory health by clearing mucus and congestion. - Lowers blood sugar levels and supports heart health.</t>
-  </si>
-  <si>
-    <t>- Antiseptic: Prevents infections and promotes wound healing. - Anti-inflammatory: Reduces redness, swelling, and irritation. - Cooling: Provides a soothing effect on the skin. - Astringent: Helps tighten skin pores. - Aromatherapeutic: Calms the mind and reduces stress. - Antimicrobial: Fights bacteria and fungi.</t>
-  </si>
-  <si>
-    <t>- Aromatherapy: Helps reduce stress, anxiety, and depression. - Skin Benefits: Used in traditional medicine for skin infections and inflammations. - Respiratory Health: Helps in treating cough, cold, and asthma. - Digestive Aid: Used in Ayurveda for treating indigestion and stomach disorders. - Wound Healing: Anti-inflammatory properties help in healing wounds and cuts.</t>
-  </si>
-  <si>
     <t>Antioxidant, anti-inflammatory, digestive aid, liver health support, heart health benefits, anti-diabetic properties, immune booster</t>
   </si>
   <si>
@@ -355,63 +339,6 @@
     <t>Antimicrobial, adaptogenic, supports respiratory health</t>
   </si>
   <si>
-    <t>Treatment of appetite loss, diarrhea, dysentery, ulcers, leucorrhoea, haemoptysis, bronchitis, eye infections, wound healing</t>
-  </si>
-  <si>
-    <t>Used for enhancing flavor in cooking, making teas, and as a natural remedy for digestion issues, anxiety, and cold relief</t>
-  </si>
-  <si>
-    <t>Tea, Cooking, Aromatherapy, Skin application</t>
-  </si>
-  <si>
-    <t>Used in soups, stir-fries, salads, curries, and smoothies</t>
-  </si>
-  <si>
-    <t>Herbal tea, Skin application, Essential oil, Traditional medicine</t>
-  </si>
-  <si>
-    <t>Herbal tea, Fresh leaves in food, Essential oil for aromatherapy, Chewing gum, Mouthwash</t>
-  </si>
-  <si>
-    <t>Herbal infusions, Aromatherapy, Traditional medicine, Insect repellent</t>
-  </si>
-  <si>
-    <t>- Skin Care: Treats acne, eczema, and psoriasis; used in creams, pastes, and soaps.</t>
-  </si>
-  <si>
-    <t>Controls blood sugar, Supports heart health, Aids digestion, Improves skin health, Enhances oral hygiene, Boosts immunity</t>
-  </si>
-  <si>
-    <t>- Used in traditional medicine to manage diabetes - Treats high blood pressure - Helps with wound healing - Used in cancer treatment (chemotherapy drugs) - Treats skin infections and rashes - Used in Ayurvedic and Siddha medicine</t>
-  </si>
-  <si>
-    <t>Noni juice, Traditional medicine, Supplements</t>
-  </si>
-  <si>
-    <t>Used in salads, smoothies, soups, curries, stir-fries, pasta, and juices. Can be eaten raw or cooked.</t>
-  </si>
-  <si>
-    <t>- Used as a traditional remedy for dengue fever - Helps in managing diabetes - Aids digestion by breaking down proteins - Alleviates inflammation-related issues - Used in hair masks for scalp health - Applied topically for skincare and wound healing - Consumed for its potential anticancer benefits</t>
-  </si>
-  <si>
-    <t>- Treats fever, malaria, and viral infections - Relieves arthritis and joint pain - Helps in digestive disorders like constipation - Treats skin infections and wounds - Used for managing diabetes and liver disorders - Helps in treating respiratory issues like cough and asthma - Acts as a mild sedative, promoting relaxation</t>
-  </si>
-  <si>
-    <t>- Used as a common spice in cooking for flavor enhancement. - Traditionally used in Ayurvedic and herbal medicine to treat colds, coughs, and sore throats. - Helps in digestion and reducing bloating. - Used as a natural remedy for arthritis and joint pain. - Mixed with honey for relief from throat infections. - Used in herbal formulations for improving appetite.</t>
-  </si>
-  <si>
-    <t>- Consumed raw in salads for digestive benefits. - Used in soups, curries, and pickles for flavor and nutrition. - Radish juice is used as a natural detoxifier for liver health. - Applied as a poultice for treating skin infections and acne. - Used in Ayurveda and traditional medicine for treating cough, gallstones, and jaundice.</t>
-  </si>
-  <si>
-    <t>- Skin Care: Used for acne, dark spots, and pigmentation. - Aromatherapy: Used in perfumes, essential oils, and incense for relaxation. - Traditional Medicine: Treats colds, coughs, and digestive issues. - Religious &amp; Cultural Uses: Used in Hindu and Buddhist rituals and meditation. - Cosmetics: Found in soaps, creams, and face packs.</t>
-  </si>
-  <si>
-    <t>- Fragrance: Flowers are used in perfumes, essential oils, incense, and hair adornments. - Religious &amp; Cultural Uses: Used in Hindu and Buddhist rituals and temple offerings. - Timber: Wood is used in furniture making, construction, and cabinetry. - Ornamental Plant: Grown in gardens for its beauty and fragrance. - Herbal Medicine: Used in Ayurveda for treating skin disorders, respiratory problems, and digestive issues.</t>
-  </si>
-  <si>
-    <t>Used in traditional medicine for digestion, sore throat relief, fever reduction, and wound healing; culinary applications in curries, chutneys, and sauces</t>
-  </si>
-  <si>
     <t>Culinary spice, herbal remedies</t>
   </si>
   <si>
@@ -463,27 +390,12 @@
     <t>Jamun is a tall evergreen tree that produces oblong, dark purple to black fruits with a sweet-tangy taste and an astringent aftertaste. The fruit is rich in anthocyanins, flavonoids, vitamin C, and iron. The seeds, bark, and leaves are also used in traditional medicine.</t>
   </si>
   <si>
-    <t>- An evergreen plant with glossy green leaves and pink, purple, or white flowers - Belongs to the Apocynaceae family - Produces medicinal alkaloids used in modern medicine - Grows well in tropical and subtropical climates</t>
-  </si>
-  <si>
     <t>Noni is a tropical fruit known for its strong smell and bitter taste. It has been used in traditional medicine for centuries to enhance immunity, reduce inflammation, aid digestion, and relieve pain. The fruit is rich in antioxidants, vitamins C and A, potassium, and flavonoids, which contribute to its health benefits.</t>
   </si>
   <si>
     <t>Spinach is a nutrient-dense leafy green vegetable known for its high iron and vitamin content. It is widely consumed for its health benefits, including improved metabolism, detoxification, and overall well-being.</t>
   </si>
   <si>
-    <t>- Medium to large green leaves (50-70 cm in diameter) with a deeply lobed structure - Contains a white, milky latex liquid when torn - Bitter taste, depending on maturity - Grows on a single-stemmed tree that reaches up to 10 meters in height</t>
-  </si>
-  <si>
-    <t>- A small ornamental tree or shrub, known as the "Night-flowering Jasmine" - Flowers are white with an orange center and bloom at night, shedding in the morning - Leaves are dark green, rough, and used in traditional medicine - Seeds and bark also have medicinal properties</t>
-  </si>
-  <si>
-    <t>- A climbing woody vine belonging to the Piperaceae family. - Produces small, round berries (peppercorns) that turn red when ripe and black when dried. - Known as the "King of Spices" due to its widespread use and medicinal benefits. - The main bioactive compound piperine is responsible for its spicy taste and medicinal properties.</t>
-  </si>
-  <si>
-    <t>- A root vegetable belonging to the Brassicaceae family. - Has a pungent, peppery taste with a crisp texture. - Contains essential vitamins (C, B6), minerals (potassium, magnesium), and fiber. - Comes in various colors: red, white, purple, and black. - The leaves are also edible and highly nutritious.</t>
-  </si>
-  <si>
     <t>Sandalwood is a slow-growing tropical tree with highly fragrant heartwood. The wood is yellowish-brown and contains essential oils with a distinct woody aroma. It has been used for centuries in Ayurveda, Chinese, and traditional medicine for its medicinal and aromatic properties. The tree can take 30-40 years to fully mature, making sandalwood one of the most valuable woods in the world.</t>
   </si>
   <si>
@@ -556,42 +468,12 @@
     <t>Brew fresh or dried leaves in hot water for tea, add to dishes for flavor, use essential oil in aromatherapy or topical applications (diluted).</t>
   </si>
   <si>
-    <t>Fresh or dried leaves can be brewed into tea; Essential oil is diluted and applied externally; Crushed leaves can be used as an insect repellent.</t>
-  </si>
-  <si>
-    <t>- Neem Leaves: Consumed as juice or tea for detoxification.</t>
-  </si>
-  <si>
-    <t>- Jamun Juice: Blend Jamun fruit with water, black salt, honey, ginger, and chat masala. Strain and serve chilled. \n- Jamun Seed Powder: Dry and grind the seeds, then mix with water or honey for diabetes management. \n- Jamun Bark Decoction: Boil bark in water, cool, and use for oral health or digestive aid. \n- Raw Consumption: Eat fresh Jamun fruits as a snack or mix with salads.</t>
-  </si>
-  <si>
-    <t>- Tea/Infusion: Dried leaves or flowers are boiled in water and consumed for diabetes control - Paste: Crushed leaves applied to wounds or skin infections - Decoction: Root extracts are used in traditional medicine - Pharmaceutical use: Vincristine and vinblastine are extracted for chemotherapy drugs</t>
-  </si>
-  <si>
     <t>The ripe fruit is crushed, fermented, and then strained to make noni juice. It can also be consumed as a supplement in capsule or powder form. The leaves and roots are sometimes used in herbal preparations.</t>
   </si>
   <si>
     <t>Can be eaten raw in salads or blended into smoothies. Often cooked by steaming, sautéing, or boiling to retain nutrients. Used in soups, curries, and other dishes.</t>
   </si>
   <si>
-    <t>- Tea/Tonic: Boil fresh leaves and steep in water - Extracts/Tablets/Powder: Available commercially for medicinal use - Culinary Use: Can be boiled to remove bitterness and eaten like spinach - Meat Tenderizer: Crushed leaves are used for softening meat - Hair Mask: Papaya leaf juice applied to the scalp - Topical Use: Extract applied to wounds or scars</t>
-  </si>
-  <si>
-    <t>Leaves: - Boil fresh leaves in water to make a decoction for treating fever, cold, and arthritis - Crush leaves and mix with honey for digestive benefits - Leaf paste can be applied to wounds and skin infections Flowers: - Dried flowers are used in herbal tea for detoxification - Flower extract is applied for skin care Seeds &amp; Bark: - Used in Ayurvedic formulations for liver disorders and immunity boosting</t>
-  </si>
-  <si>
-    <t>- Raw Use: Crushed or ground black pepper is sprinkled over food. - Infusions: Black pepper tea can be made by boiling crushed peppercorns in water. - With Honey: Mixed with honey to relieve sore throat and cough. - In Ayurveda: Combined with turmeric and milk for anti-inflammatory benefits. - Oils &amp; Extracts: Used in essential oils for pain relief and aromatherapy. - Home Remedy: Mixed with ginger and tulsi leaves for cold and flu relief.</t>
-  </si>
-  <si>
-    <t>- Raw consumption: Sliced or grated in salads. - Juice: Blended with water and lemon for detoxification. - Cooked: Stir-fried, added to soups, or pickled. - Poultice: Mashed radish applied to affected skin areas. - Radish tea: Boiled radish slices consumed for cough relief.</t>
-  </si>
-  <si>
-    <t>- Powder Form: Mixed with water, rose water, or milk and applied as a face pack. - Essential Oil: Extracted from the heartwood and used in massage, aromatherapy, and skincare. - Decoction: Sandalwood paste is sometimes boiled in water and used as a medicinal drink. - Inhalation: Essential oil is diffused to relieve stress and anxiety. - Paste Application: Used to cool skin irritation, burns, and rashes.</t>
-  </si>
-  <si>
-    <t>- Essential Oil Extraction: Flowers are steam-distilled to extract oil, used in perfumes and aromatherapy. - Herbal Tea: Dried flowers and leaves are brewed for digestive and respiratory benefits. - Skin Application: Paste made from the bark and flowers is applied to wounds and skin infections. - Hair &amp; Body Oil: Infused flower oil is used for massage and hair nourishment. - Incense &amp; Garlands: Fresh flowers are used in religious offerings and room fresheners.</t>
-  </si>
-  <si>
     <t>The pulp is consumed directly, made into juice, or used in culinary preparations. Tamarind extracts are used in herbal medicines, and decoctions are made from leaves and bark for medicinal applications</t>
   </si>
   <si>
@@ -664,36 +546,12 @@
     <t>- Oral Consumption: Large doses may cause nausea, vomiting, diarrhea, and liver toxicity.</t>
   </si>
   <si>
-    <t>- May lower blood sugar excessively, leading to hypoglycemia in diabetic patients. \n- Can cause constipation if overconsumed due to its astringent nature. \n- Some individuals may experience allergies, throat irritation, or breathing issues. \n- Excessive consumption may cause stomach pain due to its acidic content.</t>
-  </si>
-  <si>
-    <t>- Toxic if consumed in large amounts - Can cause nausea, vomiting, dizziness - Not safe for pregnant women due to its alkaloid content - May lead to low blood pressure or neurotoxic effects</t>
-  </si>
-  <si>
     <t>May cause digestive discomfort, nausea, liver toxicity (if consumed excessively), and interactions with certain medications. Pregnant and breastfeeding women should consult a doctor before use.</t>
   </si>
   <si>
     <t>Contains oxalates, which may contribute to kidney stone formation if consumed in excess. Excessive intake may interfere with calcium absorption. Raw spinach contains goitrogens that can affect thyroid function.</t>
   </si>
   <si>
-    <t>- Generally safe with minimal side effects - People allergic to papaya should avoid it - Pregnant and breastfeeding women should consult a doctor before use - Choose high-quality supplements to avoid contamination</t>
-  </si>
-  <si>
-    <t>- Can cause nausea and vomiting if consumed in high doses - Excessive consumption may lead to dizziness - Can trigger allergic reactions in sensitive individuals - Not recommended during pregnancy and breastfeeding without medical advice</t>
-  </si>
-  <si>
-    <t>- Excessive consumption may cause stomach irritation, acid reflux, and heartburn. - Can lead to allergic reactions in sensitive individuals. - Overuse may cause burning sensation in the throat or mouth. - High doses may interact with medications, altering their absorption.</t>
-  </si>
-  <si>
-    <t>- Excessive consumption can cause bloating and gas. - May lead to low blood pressure (hypotension). - Can irritate the stomach lining in people with ulcers or gastritis. - Allergic reactions are rare but possible. - May interfere with thyroid function if consumed in large quantities due to goitrogens.</t>
-  </si>
-  <si>
-    <t>- Skin Irritation: Some people may experience redness or allergic reactions. - Headache or Nausea: Inhaling strong sandalwood oil for extended periods may cause discomfort. - Toxicity (if ingested in large amounts): May cause stomach issues and toxicity in excessive doses. - Hormonal Effects: Some studies suggest that excessive use of sandalwood oil may interfere with hormone levels.</t>
-  </si>
-  <si>
-    <t>- Skin Allergies: Some people may develop rashes or irritation when using champak oil. - Respiratory Issues: Inhaling strong scents for a long time may cause headaches or nausea. - Pregnancy Concerns: Excessive use of champak-based products may have unknown effects on pregnancy. - Toxicity (in large doses): The plant may cause mild toxicity if consumed in excess.</t>
-  </si>
-  <si>
     <t>Excess consumption may lead to acidity, tooth erosion, hypoglycemia in diabetics, and allergic reactions in some individuals</t>
   </si>
   <si>
@@ -760,39 +618,15 @@
     <t>Native to Southern Europe; Widely cultivated in Mediterranean regions, North Africa, Asia, and parts of the Americas.</t>
   </si>
   <si>
-    <t>- Native to India, Pakistan, Sri Lanka.</t>
-  </si>
-  <si>
     <t>Native to India, Sri Lanka, Bangladesh, Indonesia, and the Philippines. Also found in tropical regions of the U.S., Africa, and Australia.</t>
   </si>
   <si>
-    <t>- Widely available in tropical and subtropical regions - Grows in India, Africa, Australia, and South America - Commonly found in gardens and roadsides</t>
-  </si>
-  <si>
     <t>Found in tropical and subtropical regions, including Southeast Asia, Australia, India, Polynesia, and the Pacific Islands.</t>
   </si>
   <si>
     <t>Grown globally, especially in temperate and subtropical regions. Major producers include the USA, China, and India.</t>
   </si>
   <si>
-    <t>- Native to Mexico, Central, and South America - Now cultivated in over 57 countries - Grown in tropical regions, including Asia, Southeast Asia, Australia, Africa, the Caribbean, and the United States</t>
-  </si>
-  <si>
-    <t>- Native to India, Nepal, Sri Lanka, and Southeast Asia - Found in tropical and subtropical regions - Grows well in gardens, temples, and herbal gardens</t>
-  </si>
-  <si>
-    <t>- Native to South India and widely cultivated in Kerala, Karnataka, and Tamil Nadu. - Grown in tropical regions such as Vietnam, Indonesia, Brazil, Sri Lanka, and Malaysia. - Requires hot and humid climates for optimal growth.</t>
-  </si>
-  <si>
-    <t>- Native to Southeast Asia but widely cultivated worldwide. - Grows well in temperate and tropical regions. - Commonly found in India, China, Japan, Europe, and North America. - Thrives in well-drained, loamy soil with full sunlight.</t>
-  </si>
-  <si>
-    <t>- Native to India, Indonesia, Sri Lanka, and Australia. - Cultivated in tropical and subtropical regions, including Southeast Asia, Hawaii, and some parts of Africa. - Indian sandalwood (Santalum album) is considered the most valuable variety, especially in Karnataka, Tamil Nadu, and Kerala.</t>
-  </si>
-  <si>
-    <t>- Native to South Asia, Southeast Asia, Southern China, and Indomalayan regions. - Found in tropical and subtropical forests at elevations of 200–1,600 meters (660–5,250 ft). - Countries: India, Bangladesh, Cambodia, China, Indonesia, Malaysia, Myanmar, Nepal, the Philippines, Thailand, Vietnam, and the Maldives. - In China, found in southern Tibet and Yunnan Province. - A rare population has been found in Yemen, making it the only species of the Magnoliaceae family in the Arabian Peninsula.</t>
-  </si>
-  <si>
     <t>Native to tropical Africa, widely grown in India, Southeast Asia, South America, and the Caribbean</t>
   </si>
   <si>
@@ -910,9 +744,6 @@
     <t>Skin healing, digestion, wound healing, acne relief, weight loss, diabetes control, inflammatory bowel disease relief.</t>
   </si>
   <si>
-    <t>Aloe juice (for digestion), skin application (for burns, acne, psoriasis, and wounds), oral consumption (for diabetes and weight loss).</t>
-  </si>
-  <si>
     <t>Aloe Vera is a cactus-like plant found in hot, dry climates. Historically used for skin conditions, wound healing, and hair care. It also supports digestion, immunity, and diabetes management.</t>
   </si>
   <si>
@@ -943,9 +774,6 @@
     <t>A large climbing shrub with heart-shaped leaves, wiry aerial roots, and scarlet-colored fruits. Found in dry and deciduous forests across tropical India, Myanmar, and Sri Lanka. It is a sacred herb in Ayurveda and known as the "root of immortality.</t>
   </si>
   <si>
-    <t>1. Giloy Juice – Extracted from the stem and consumed for immunity. 2. Giloy Powder (Churna) – Sun-dried stems ground into fine powder. 3. Giloy Satva – Stem ground in water, residue collected, cleaned, and dried to powder form. 4. Giloy Tablets/Syrup – Marketed products containing Giloy, often mixed with Tulsi, Amla, and Neem.</t>
-  </si>
-  <si>
     <t>Can cause constipation, lower blood sugar levels, and may not be suitable for pregnant or breastfeeding women. Should be taken under medical supervision</t>
   </si>
   <si>
@@ -964,9 +792,6 @@
     <t>Contains cardiac glycosides that affect heart rate. Used for heart conditions, asthma, epilepsy, cancer, menstrual pain, leprosy, malaria, ringworm, indigestion, and venereal diseases.</t>
   </si>
   <si>
-    <t>- Traditional medicine uses oleander extracts for various ailments, including skin problems and warts. - A combination of oleander leaf extract with other herbs has been used for treating mild heart failure.</t>
-  </si>
-  <si>
     <t>A fast-growing, evergreen shrub with long, narrow leaves and clusters of fragrant flowers in pink, white, or red. It is highly toxic and is often planted as an ornamental plant.</t>
   </si>
   <si>
@@ -1117,9 +942,6 @@
     <t>Bhringaraj, commonly known as the "King of Herbs" in Ayurveda, is a powerful medicinal plant widely used in traditional Indian medicine. It is particularly known for its effectiveness in promoting hair growth, preventing premature graying, and strengthening hair roots. It also supports liver detoxification, enhances digestion, and reduces inflammation in the body. Additionally, it is used in treating skin conditions like eczema and psoriasis. Its rejuvenating properties help in improving overall vitality and longevity.</t>
   </si>
   <si>
-    <t>For Hair:                  Boil Bhringaraj leaves in coconut oil and apply to the scalp.            For Digestion: Prepare herbal tea by boiling dried leaves in water.                       For Skin: Crush fresh leaves and apply as a paste to affected areas.                       For Liver Health: Consume Bhringaraj juice with honey in moderation.</t>
-  </si>
-  <si>
     <t>May cause low blood pressure or dizziness if taken in large amounts. Pregnant or breastfeeding women should consult a doctor before use.</t>
   </si>
   <si>
@@ -1187,9 +1009,6 @@
   </si>
   <si>
     <t>A large tropical plant cultivated for its oil-rich seeds, widely used in pharmaceutical, industrial, and cosmetic applications. However, the seeds contain ricin, a highly toxic substance.</t>
-  </si>
-  <si>
-    <t>Oil is extracted by pressing or solvent extraction; applied externally for skin care, used in lubricants, or consumed as a laxative (caution needed).</t>
   </si>
   <si>
     <t>Ricin in seeds is highly toxic; ingestion of raw seeds can be fatal.</t>
@@ -1235,9 +1054,6 @@
     <t>Citrus limon (Nimbuka) is a small tree with evergreen, shiny leaves and small white flowers. It bears yellow, ovoid fruits rich in vitamin C and antioxidants. It balances Vata and Kapha doshas.</t>
   </si>
   <si>
-    <t>Use in cooking, Prepare herbal infusions, Apply fruit juice on skin, Extract oil for medicinal use</t>
-  </si>
-  <si>
     <t>May cause acidity, Tooth enamel erosion, Skin irritation in some individuals</t>
   </si>
   <si>
@@ -1259,9 +1075,6 @@
     <t>Coffea arabica is a small tree or shrub with dark green, glossy leaves and fragrant white flowers. It produces red berries containing coffee beans. Rich in caffeine, it is known for its stimulating effects and antioxidant properties.</t>
   </si>
   <si>
-    <t>Roast and grind beans, Brew into coffee, Use in face scrubs and hair treatments</t>
-  </si>
-  <si>
     <t>May cause insomnia, Increased heart rate, Acid reflux, Dependency with overuse</t>
   </si>
   <si>
@@ -1274,18 +1087,12 @@
     <t>Coriandrum sativum</t>
   </si>
   <si>
-    <t>Rich in vitamin C, calcium, magnesium, potassium, and iron; Antibacterial properties; May lower blood pressure and act as a diuretic</t>
-  </si>
-  <si>
     <t>Used for anxiety, constipation, diabetes, indigestion, IBS, skin irritation; Essential oil used in skincare</t>
   </si>
   <si>
     <t>Coriander belongs to the Apiaceae family. The seeds are known as coriander, while the leaves are called cilantro. It has a distinct aroma and is widely used in cooking and herbal medicine.</t>
   </si>
   <si>
-    <t>Consumed raw or cooked; Used as seasoning; Coriander essential oil applied topically; Infused into tea</t>
-  </si>
-  <si>
     <t>Possible allergic reactions; May lower blood sugar and blood pressure; Skin irritation in some cases; May interact with medications</t>
   </si>
   <si>
@@ -1331,10 +1138,301 @@
     <t>Thumbai is an annual plant with small white flowers and a quadrangular stem, known for its antimicrobial and antifungal properties.</t>
   </si>
   <si>
-    <t>1. Leaf juice can be used for eye diseases, sinusitis, and tonsillitis. 2. Crush 3-4 leaves with a small onion and salt, apply on the head before sunrise for three days. 3. Inhale pressed leaves to relieve colds.</t>
-  </si>
-  <si>
     <t>May cause mild skin irritation or allergic reactions in some individuals.</t>
+  </si>
+  <si>
+    <t>Kepula</t>
+  </si>
+  <si>
+    <t>Stomachic,Sedative, Astringent, Antiseptic, Anti-inflammatory</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anticancer (contains alkaloids like vincristine and vinblastine used in chemotherapy) , Antidiabetic (regulates blood sugar levels) , Wound healing  Antioxidant properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boosts platelet count (beneficial for dengue fever) , Regulates blood sugar levels ,Supports digestion , Promotes hair growth ,Improves skin health </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anti-inflammatory , Anti-viral , Anti-fungal , Anti-pyretic (reduces fever) ,Analgesic (pain-relieving) , Immunomodulatory (boosts immunity) , Anti-arthritic ,Antioxidant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anti-inflammatory properties help reduce swelling and pain, Antioxidant properties protect against free radicals and aging, Improves digestion by stimulating hydrochloric acid secretion, Boosts metabolism and aids weight loss,Has antimicrobial properties that fight infection,Acts as an expectorant to clear respiratory congestion, Enhances nutrient absorption especially curcumin in turmeric.</t>
+  </si>
+  <si>
+    <t>Aids digestion by promoting bile production and gut health,Detoxifies liver and kidneys by flushing out toxins, Boosts immunity due to high vitamin C content, Anti-inflammatory properties help with arthritis and swelling, Antibacterial and antifungal properties combat infections, Supports respiratory health by clearing mucus and congestion, Lowers blood sugar levels and supports heart health.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Antiseptic: Prevents infections and promotes wound healing,Anti-inflammatory: Reduces redness, swelling and irritation, Cooling: Provides a soothing effect on the skin, Astringent: Helps tighten skin pores, Aromatherapeutic: Calms the mind and reduces stress,Antimicrobial: Fights bacteria and fungi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aromatherapy: Helps reduce stress, anxiety and depression, Skin Benefits: Used in traditional medicine for skin infections and inflammations,Respiratory Health: Helps in treating cough cold and asthma, Digestive Aid: Used in Ayurveda for treating indigestion and stomach disorders,Wound Healing: Anti-inflammatory properties help in healing wounds and cuts.</t>
+  </si>
+  <si>
+    <t>Antibacterial properties, May lower blood pressure and act as a diuretic</t>
+  </si>
+  <si>
+    <t>Treats fever, malaria, and viral infections.  Relieves arthritis and joint pain. Helps in digestive disorders like constipation. Treats skin infections and wounds .Used for managing diabetes and liver disorders. Helps in treating respiratory issues like cough and asthma. Acts as a mild sedative, promoting relaxation.</t>
+  </si>
+  <si>
+    <t>Treatment of appetite loss. Diarrhea .dysentery. Ulcers. Leucorrhoea. Haemoptysis. Bronchitis. eye infections. wound healing.</t>
+  </si>
+  <si>
+    <t>enhancing flavor in cooking. making teas.natural remedy for digestion issues. anxiety and cold relief</t>
+  </si>
+  <si>
+    <t>Tea. Cooking. Aromatherapy. Skin application</t>
+  </si>
+  <si>
+    <t>soups. stir-fries. Salads. Curries. Smoothies</t>
+  </si>
+  <si>
+    <t>Herbal tea. Skin application. Essential oil. Traditional medicine</t>
+  </si>
+  <si>
+    <t>Herbal tea. Fresh leaves in food. Essential oil for aromatherapy. Chewing gum. Mouthwash</t>
+  </si>
+  <si>
+    <t>Herbal infusions. Aromatherapy. Traditional medicine. Insect repellent</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Skin Care: Treats acne, eczema, and psoriasis. Used in creams, pastes, and soaps.</t>
+  </si>
+  <si>
+    <t>Controls blood sugar. Supports heart health. Aids digestion. Improves skin health. Enhances oral hygiene. Boosts immunity</t>
+  </si>
+  <si>
+    <t>Used in traditional medicine to manage diabetes.Treats high blood pressure.Helps with wound healing .Used in cancer treatment (chemotherapy drugs).Treats skin infections and rashes .Used in Ayurvedic and Siddha medicine</t>
+  </si>
+  <si>
+    <t>Noni juice.Traditional medicine. Supplements</t>
+  </si>
+  <si>
+    <t>Used in salads. Smoothies. soups.curries. stir-fries. Pasta. juices. Can be eaten raw or cooked.</t>
+  </si>
+  <si>
+    <t>Used as a traditional remedy for dengue fever . Helps in managing diabetes.Aids digestion by breaking down proteins .Alleviates inflammation-related issues. Used in hair masks for scalp healt. Applied topically for skincare and wound healing .Consumed for its potential anticancer benefits</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Used as a common spice in cooking for flavor enhancement.Traditionally used in Ayurvedic and herbal medicine to treat colds, coughs, and sore throats.  Helps in digestion and reducing bloating.  Used as a natural remedy for arthritis and joint pain. Mixed with honey for relief from throat infections. Used in herbal formulations for improving appetite.</t>
+  </si>
+  <si>
+    <t>Consumed raw in salads for digestive benefits.  Used in soups, curries, and pickles for flavor and nutrition. Radish juice is used as a natural detoxifier for liver health. Applied as a poultice for treating skin infections and acne. Used in Ayurveda and traditional medicine for treating cough, gallstones, and jaundice.</t>
+  </si>
+  <si>
+    <t>Skin Care: Used for acne, dark spots, and pigmentation. Aromatherapy: Used in perfumes, essential oils, and incense for relaxation.  Traditional Medicine: Treats colds, coughs, and digestive issues.  Religious &amp; Cultural Uses: Used in Hindu and Buddhist rituals and meditation. Cosmetics: Found in soaps, creams, and face packs.</t>
+  </si>
+  <si>
+    <t>Fragrance: Flowers are used in perfumes, essential oils, incense, and hair adornments. Religious &amp; Cultural Uses: Used in Hindu and Buddhist rituals and temple offerings.  Timber: Wood is used in furniture making, construction, and cabinetry. Ornamental Plant: Grown in gardens for its beauty and fragrance. Herbal Medicine: Used in Ayurveda for treating skin disorders, respiratory problems, and digestive issues.</t>
+  </si>
+  <si>
+    <t>Used in traditional medicine for digestion, sore throat relief, fever reduction, and wound healing;. culinary applications in curries, chutneys, and sauces</t>
+  </si>
+  <si>
+    <t>Aloe juice (for digestion).skin application (for burns, acne, psoriasis, and wounds).oral consumption (for diabetes and weight loss).</t>
+  </si>
+  <si>
+    <t>Traditional medicine uses oleander extracts for various ailments, including skin problems and warts.  A combination of oleander leaf extract with other herbs has been used for treating mild heart failure.</t>
+  </si>
+  <si>
+    <t>An evergreen plant with glossy green leaves and pink, purple, or white flowers . Belongs to the Apocynaceae family .Produces medicinal alkaloids used in modern medicine. Grows well in tropical and subtropical climates</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Medium to large green leaves (50-70 cm in diameter) with a deeply lobed structure .Contains a white, milky latex liquid when torn . Bitter taste, depending on maturity . Grows on a single-stemmed tree that reaches up to 10 meters in height</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A small ornamental tree or shrub, known as the "Night-flowering Jasmine" .Flowers are white with an orange center and bloom at night, shedding in the morning. Leaves are dark green, rough, and used in traditional medicine .Seeds and bark also have medicinal properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A climbing woody vine belonging to the Piperaceae family. Produces small, round berries (peppercorns) that turn red when ripe and black when dried.  Known as the "King of Spices" due to its widespread use and medicinal benefits.  The main bioactive compound piperine is responsible for its spicy taste and medicinal properties.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A root vegetable belonging to the Brassicaceae family. Has a pungent, peppery taste with a crisp texture.  Contains essential vitamins (C, B6), minerals (potassium, magnesium), and fiber.  Comes in various colors: red, white, purple, and black.  The leaves are also edible and highly nutritious.</t>
+  </si>
+  <si>
+    <t>Fresh or dried leaves can be brewed into tea. Essential oil is diluted and applied externally. Crushed leaves can be used as an insect repellent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Neem Leaves: Consumed as juice or tea for detoxification.</t>
+  </si>
+  <si>
+    <t>Jamun Juice: Blend Jamun fruit with water, black salt, honey, ginger, and chat masala. Strain and serve chilled.  Jamun Seed Powder: Dry and grind the seeds, then mix with water or honey for diabetes management.  Jamun Bark Decoction: Boil bark in water, cool, and use for oral health or digestive aid.  Raw Consumption: Eat fresh Jamun fruits as a snack or mix with salads.</t>
+  </si>
+  <si>
+    <t>Tea/Infusion: Dried leaves or flowers are boiled in water and consumed for diabetes control . Paste: Crushed leaves applied to wounds or skin infections. Decoction: Root extracts are used in traditional medicine . Pharmaceutical use: Vincristine and vinblastine are extracted for chemotherapy drugs</t>
+  </si>
+  <si>
+    <t>Tea/Tonic: Boil fresh leaves and steep in water .Extracts/Tablets/Powder: Available commercially for medicinal use .Culinary Use: Can be boiled to remove bitterness and eaten like spinach . Meat Tenderizer: Crushed leaves are used for softening meat. Hair Mask: Papaya leaf juice applied to the scalp .Topical Use: Extract applied to wounds or scars</t>
+  </si>
+  <si>
+    <t>Leaves: Boil fresh leaves in water to make a decoction for treating fever, cold, and arthritis . Crush leaves and mix with honey for digestive benefits . Leaf paste can be applied to wounds and skin infections .Flowers:  Dried flowers are used in herbal tea for detoxification and Flower extract is applied for skin care. Seeds &amp; Bark: Used in Ayurvedic formulations for liver disorders and immunity boosting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Leaf juice can be used for eye diseases, sinusitis, and tonsillitis. Crush 3-4 leaves with a small onion and salt, apply on the head before sunrise for three days. Inhale pressed leaves to relieve colds.</t>
+  </si>
+  <si>
+    <t>Consumed raw or cooked. Used as seasoning. Coriander essential oil applied topically.Infused into tea</t>
+  </si>
+  <si>
+    <t>Roast and grind beans. Brew into coffee.Use in face scrubs and hair treatments</t>
+  </si>
+  <si>
+    <t>Use in cooking,. Prepare herbal infusions. Apply fruit juice on skin. Extract oil for medicinal use</t>
+  </si>
+  <si>
+    <t>Oil is extracted by pressing or solvent extraction. applied externally for skin care, used in lubricants, or consumed as a laxative (caution needed).</t>
+  </si>
+  <si>
+    <t>For Hair Boil Bhringaraj leaves in coconut oil and apply to the scalp. For Digestion: Prepare herbal tea by boiling dried leaves in water.For Skin: Crush fresh leaves and apply as a paste to affected areas. For Liver Health: Consume Bhringaraj juice with honey in moderation.</t>
+  </si>
+  <si>
+    <t>Giloy Juice –Extracted from the stem and consumed for immunity.Giloy Powder (Churna) – Sun-dried stems ground into fine powder. Giloy Satva – Stem ground in water, residue collected, cleaned, and dried to powder form.Giloy Tablets/Syrup – Marketed products containing Giloy, often mixed with Tulsi, Amla, and Neem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Essential Oil Extraction: Flowers are steam-distilled to extract oil, used in perfumes and aromatherapy. Herbal Tea: Dried flowers and leaves are brewed for digestive and respiratory benefits. Skin Application: Paste made from the bark and flowers is applied to wounds and skin infections. Hair &amp; Body Oil: Infused flower oil is used for massage and hair nourishment.  Incense &amp; Garlands: Fresh flowers are used in religious offerings and room fresheners.</t>
+  </si>
+  <si>
+    <t>Powder Form: Mixed with water, rose water, or milk and applied as a face pack.  Essential Oil: Extracted from the heartwood and used in massage, aromatherapy, and skincare. Decoction: Sandalwood paste is sometimes boiled in water and used as a medicinal drink.  Inhalation: Essential oil is diffused to relieve stress and anxiety. Paste Application: Used to cool skin irritation, burns, and rashes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Raw consumption: Sliced or grated in salads. Juice: Blended with water and lemon for detoxification.  Cooked: Stir-fried, added to soups, or pickled.  Poultice: Mashed radish applied to affected skin areas.  Radish tea: Boiled radish slices consumed for cough relief.</t>
+  </si>
+  <si>
+    <t>Raw Use: Crushed or ground black pepper is sprinkled over food. Infusions: Black pepper tea can be made by boiling crushed peppercorns in water.  With Honey: Mixed with honey to relieve sore throat and cough.  In Ayurveda: Combined with turmeric and milk for anti-inflammatory benefits.  Oils &amp; Extracts: Used in essential oils for pain relief and aromatherapy.  Home Remedy: Mixed with ginger and tulsi leaves for cold and flu relief.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> May lower blood sugar excessively, leading to hypoglycemia in diabetic patients.  Can cause constipation if overconsumed due to its astringent nature.  Some individuals may experiene allergies, throat irritation, or breathing issues. \n- Excessive consumption may cause stomach pain due to its acidic content.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Toxic if consumed in large amounts .Can cause nausea, vomiting, dizziness .Not safe for pregnant women due to its alkaloid content .May lead to low blood pressure or neurotoxic effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Generally safe with minimal side effects .People allergic to papaya should avoid it . Pregnant and breastfeeding women should consult a doctor before use . Choose high-quality supplements to avoid contamination</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Can cause nausea and vomiting if consumed in high doses . Excessive consumption may lead to dizziness . Can trigger allergic reactions in sensitive individuals . Not recommended during pregnancy and breastfeeding without medical advice</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Excessive consumption may cause stomach irritation, acid reflux, and heartburn.  Can lead to allergic reactions in sensitive individuals. Overuse may cause burning sensation in the throat or mouth. High doses may interact with medications, altering their absorption.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Excessive consumption can cause bloating and gas. May lead to low blood pressure (hypotension).  Can irritate the stomach lining in people with ulcers or gastritis.  Allergic reactions are rare but possible.  May interfere with thyroid function if consumed in large quantities due to goitrogens.</t>
+  </si>
+  <si>
+    <t>Skin Irritation: Some people may experience redness or allergic reactions.  Headache or Nausea: Inhaling strong sandalwood oil for extended periods may cause discomfort. Toxicity (if ingested in large amounts): May cause stomach issues and toxicity in excessive doses.  Hormonal Effects: Some studies suggest that excessive use of sandalwood oil may interfere with hormone levels.</t>
+  </si>
+  <si>
+    <t>Skin Allergies: Some people may develop rashes or irritation when using champak oil.  Respiratory Issues: Inhaling strong scents for a long time may cause headaches or nausea. Pregnancy Concerns: Excessive use of champak-based products may have unknown effects on pregnancy.  Toxicity (in large doses): The plant may cause mild toxicity if consumed in excess.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Native to India, Pakistan, Sri Lanka.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Widely available in tropical and subtropical regions - Grows in India, Africa, Australia, and South America - Commonly found in gardens and roadsides</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Native to Mexico, Central, and South America . Now cultivated in over 57 countries . Grown in tropical regions, including Asia, Southeast Asia, Australia, Africa, the Caribbean, and the United States</t>
+  </si>
+  <si>
+    <t>Native to India, Nepal, Sri Lanka, and Southeast Asia . Found in tropical and subtropical regions . Grows well in gardens, temples, and herbal gardens</t>
+  </si>
+  <si>
+    <t>Native to South India and widely cultivated in Kerala, Karnataka, and Tamil Nadu.  Grown in tropical regions such as Vietnam, Indonesia, Brazil, Sri Lanka, and Malaysia.  Requires hot and humid climates for optimal growth.</t>
+  </si>
+  <si>
+    <t>Native to Southeast Asia but widely cultivated worldwide.  Grows well in temperate and tropical regions.  Commonly found in India, China, Japan, Europe, and North America. Thrives in well-drained, loamy soil with full sunlight.</t>
+  </si>
+  <si>
+    <t>Native to India, Indonesia, Sri Lanka, and Australia.  Cultivated in tropical and subtropical regions, including Southeast Asia, Hawaii, and some parts of Africa.  Indian sandalwood (Santalum album) is considered the most valuable variety, especially in Karnataka, Tamil Nadu, and Kerala.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Native to South Asia, Southeast Asia, Southern China, and Indomalayan regions. Found in tropical and subtropical forests at elevations of 200–1,600 meters (660–5,250 ft).  Countries: India, Bangladesh, Cambodia, China, Indonesia, Malaysia, Myanmar, Nepal, the Philippines, Thailand, Vietnam, and the Maldives. In China, found in southern Tibet and Yunnan Province. A rare population has been found in Yemen, making it the only species of the Magnoliaceae family in the Arabian Peninsula.</t>
+  </si>
+  <si>
+    <t>images/Cuban Oregano.jpg</t>
+  </si>
+  <si>
+    <t>images/Curry.jpg</t>
+  </si>
+  <si>
+    <t>images/Doddapatre.jpg</t>
+  </si>
+  <si>
+    <t>images/Ekka.jpg</t>
+  </si>
+  <si>
+    <t>images/Ganike.jpg</t>
+  </si>
+  <si>
+    <t>images/Gasagase.jpg</t>
+  </si>
+  <si>
+    <t>images/Guava.jpg</t>
+  </si>
+  <si>
+    <t>images/Ginger.webp</t>
+  </si>
+  <si>
+    <t>images/Green_Chiretta.jpg</t>
+  </si>
+  <si>
+    <t>images/Henna.jpg</t>
+  </si>
+  <si>
+    <t>images/Honge.jpg</t>
+  </si>
+  <si>
+    <t>images/Insulin.jpg</t>
+  </si>
+  <si>
+    <t>images/Jasmine.jpg</t>
+  </si>
+  <si>
+    <t>images/Kachhar.jpg</t>
+  </si>
+  <si>
+    <t>images/Kamakasturi.jpg</t>
+  </si>
+  <si>
+    <t>images/Ashoka.jpg</t>
+  </si>
+  <si>
+    <t>images/Ashwagandha.jpg</t>
+  </si>
+  <si>
+    <t>images/Basale.jpg</t>
+  </si>
+  <si>
+    <t>images/Brahmi.jpg</t>
+  </si>
+  <si>
+    <t>images/bhringaraj.jpg</t>
+  </si>
+  <si>
+    <t>images/Butterfly_Pea.jpg</t>
+  </si>
+  <si>
+    <t>images/Caricature.jpg</t>
+  </si>
+  <si>
+    <t>images/Castor.jpg</t>
+  </si>
+  <si>
+    <t>images/Chakte.jpg</t>
+  </si>
+  <si>
+    <t>images/citron_lime.jpg</t>
+  </si>
+  <si>
+    <t>images/coffee.jpg</t>
+  </si>
+  <si>
+    <t>images/coriander.jpg</t>
+  </si>
+  <si>
+    <t>images/Red_Flame_Ivy.jpg</t>
+  </si>
+  <si>
+    <t>images/thumbe.jpg</t>
   </si>
 </sst>
 </file>
@@ -1726,8 +1824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="H24" zoomScale="107" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1777,31 +1875,31 @@
     </row>
     <row r="2" spans="1:13" ht="303" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>369</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>77</v>
+        <v>370</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>111</v>
+        <v>380</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>206</v>
+        <v>163</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>239</v>
+        <v>188</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>273</v>
+        <v>214</v>
       </c>
       <c r="J2" s="2" t="b">
         <v>0</v>
@@ -1812,31 +1910,31 @@
     </row>
     <row r="3" spans="1:13" ht="182.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>112</v>
+        <v>381</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>207</v>
+        <v>164</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>240</v>
+        <v>189</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>274</v>
+        <v>215</v>
       </c>
       <c r="J3" s="2" t="b">
         <v>0</v>
@@ -1847,31 +1945,31 @@
     </row>
     <row r="4" spans="1:13" ht="188.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>113</v>
+        <v>382</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>241</v>
+        <v>190</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>275</v>
+        <v>216</v>
       </c>
       <c r="J4" s="2" t="b">
         <v>0</v>
@@ -1882,31 +1980,31 @@
     </row>
     <row r="5" spans="1:13" ht="174" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>114</v>
+        <v>383</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>209</v>
+        <v>166</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>242</v>
+        <v>191</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>276</v>
+        <v>217</v>
       </c>
       <c r="J5" s="2" t="b">
         <v>0</v>
@@ -1917,31 +2015,31 @@
     </row>
     <row r="6" spans="1:13" ht="217.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>115</v>
+        <v>384</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>210</v>
+        <v>167</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>243</v>
+        <v>192</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>277</v>
+        <v>218</v>
       </c>
       <c r="J6" s="2" t="b">
         <v>0</v>
@@ -1952,31 +2050,31 @@
     </row>
     <row r="7" spans="1:13" ht="181.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>116</v>
+        <v>385</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>244</v>
+        <v>193</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>278</v>
+        <v>219</v>
       </c>
       <c r="J7" s="2" t="b">
         <v>0</v>
@@ -1987,31 +2085,31 @@
     </row>
     <row r="8" spans="1:13" ht="225" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>117</v>
+        <v>386</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>178</v>
+        <v>405</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>212</v>
+        <v>169</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>245</v>
+        <v>194</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>279</v>
+        <v>220</v>
       </c>
       <c r="J8" s="2" t="b">
         <v>0</v>
@@ -2022,31 +2120,31 @@
     </row>
     <row r="9" spans="1:13" ht="170.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>118</v>
+        <v>387</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>179</v>
+        <v>406</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>246</v>
+        <v>430</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>280</v>
+        <v>221</v>
       </c>
       <c r="J9" s="2" t="b">
         <v>0</v>
@@ -2057,31 +2155,31 @@
     </row>
     <row r="10" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>119</v>
+        <v>388</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>180</v>
+        <v>407</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>214</v>
+        <v>422</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>281</v>
+        <v>222</v>
       </c>
       <c r="J10" s="2" t="b">
         <v>0</v>
@@ -2092,31 +2190,31 @@
     </row>
     <row r="11" spans="1:13" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>86</v>
+        <v>371</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>120</v>
+        <v>389</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>147</v>
+        <v>400</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>181</v>
+        <v>408</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>215</v>
+        <v>423</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>248</v>
+        <v>431</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>282</v>
+        <v>223</v>
       </c>
       <c r="J11" s="2" t="b">
         <v>0</v>
@@ -2127,31 +2225,31 @@
     </row>
     <row r="12" spans="1:13" ht="203.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>121</v>
+        <v>390</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>249</v>
+        <v>196</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>283</v>
+        <v>224</v>
       </c>
       <c r="J12" s="2" t="b">
         <v>0</v>
@@ -2162,31 +2260,31 @@
     </row>
     <row r="13" spans="1:13" ht="242.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>122</v>
+        <v>391</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>250</v>
+        <v>197</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>284</v>
+        <v>225</v>
       </c>
       <c r="J13" s="2" t="b">
         <v>0</v>
@@ -2197,31 +2295,31 @@
     </row>
     <row r="14" spans="1:13" ht="161.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>89</v>
+        <v>372</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>123</v>
+        <v>392</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>150</v>
+        <v>401</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>184</v>
+        <v>409</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>218</v>
+        <v>424</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>251</v>
+        <v>432</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>285</v>
+        <v>226</v>
       </c>
       <c r="J14" s="2" t="b">
         <v>0</v>
@@ -2232,31 +2330,31 @@
     </row>
     <row r="15" spans="1:13" ht="219" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>90</v>
+        <v>373</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>124</v>
+        <v>379</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>151</v>
+        <v>402</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>185</v>
+        <v>410</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>219</v>
+        <v>425</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>252</v>
+        <v>433</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>286</v>
+        <v>227</v>
       </c>
       <c r="J15" s="2" t="b">
         <v>0</v>
@@ -2267,31 +2365,31 @@
     </row>
     <row r="16" spans="1:13" ht="181.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>91</v>
+        <v>374</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>125</v>
+        <v>393</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>152</v>
+        <v>403</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>186</v>
+        <v>421</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>220</v>
+        <v>426</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>253</v>
+        <v>434</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>287</v>
+        <v>228</v>
       </c>
       <c r="J16" s="2" t="b">
         <v>0</v>
@@ -2302,31 +2400,31 @@
     </row>
     <row r="17" spans="1:13" ht="174" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>92</v>
+        <v>375</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>126</v>
+        <v>394</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>153</v>
+        <v>404</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>187</v>
+        <v>420</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>221</v>
+        <v>427</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>254</v>
+        <v>435</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>288</v>
+        <v>229</v>
       </c>
       <c r="J17" s="2" t="b">
         <v>0</v>
@@ -2337,31 +2435,31 @@
     </row>
     <row r="18" spans="1:13" ht="232.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>93</v>
+        <v>376</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>127</v>
+        <v>395</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>188</v>
+        <v>419</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>222</v>
+        <v>428</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>255</v>
+        <v>436</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>289</v>
+        <v>230</v>
       </c>
       <c r="J18" s="2" t="b">
         <v>0</v>
@@ -2372,31 +2470,31 @@
     </row>
     <row r="19" spans="1:13" ht="192.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>94</v>
+        <v>377</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>128</v>
+        <v>396</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>189</v>
+        <v>418</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>223</v>
+        <v>429</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>256</v>
+        <v>437</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>290</v>
+        <v>231</v>
       </c>
       <c r="J19" s="2" t="b">
         <v>0</v>
@@ -2407,31 +2505,31 @@
     </row>
     <row r="20" spans="1:13" ht="178.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>129</v>
+        <v>397</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>224</v>
+        <v>173</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>257</v>
+        <v>198</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>291</v>
+        <v>232</v>
       </c>
       <c r="J20" s="2" t="b">
         <v>0</v>
@@ -2442,31 +2540,31 @@
     </row>
     <row r="21" spans="1:13" ht="222" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>191</v>
+        <v>148</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>225</v>
+        <v>174</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>258</v>
+        <v>199</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>292</v>
+        <v>438</v>
       </c>
       <c r="J21" s="2" t="b">
         <v>1</v>
@@ -2477,31 +2575,31 @@
     </row>
     <row r="22" spans="1:13" ht="304.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>225</v>
+        <v>174</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>259</v>
+        <v>200</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>292</v>
+        <v>439</v>
       </c>
       <c r="J22" s="2" t="b">
         <v>1</v>
@@ -2512,31 +2610,31 @@
     </row>
     <row r="23" spans="1:13" ht="203.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>193</v>
+        <v>150</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>226</v>
+        <v>175</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>260</v>
+        <v>201</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>292</v>
+        <v>440</v>
       </c>
       <c r="J23" s="2" t="b">
         <v>1</v>
@@ -2547,31 +2645,31 @@
     </row>
     <row r="24" spans="1:13" ht="231" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>194</v>
+        <v>151</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>292</v>
+        <v>441</v>
       </c>
       <c r="J24" s="2" t="b">
         <v>1</v>
@@ -2582,31 +2680,31 @@
     </row>
     <row r="25" spans="1:13" ht="169.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>262</v>
+        <v>203</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>292</v>
+        <v>442</v>
       </c>
       <c r="J25" s="2" t="b">
         <v>1</v>
@@ -2617,31 +2715,31 @@
     </row>
     <row r="26" spans="1:13" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>263</v>
+        <v>204</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>292</v>
+        <v>443</v>
       </c>
       <c r="J26" s="2" t="b">
         <v>1</v>
@@ -2652,31 +2750,31 @@
     </row>
     <row r="27" spans="1:13" ht="167.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>230</v>
+        <v>179</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>264</v>
+        <v>205</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>292</v>
+        <v>444</v>
       </c>
       <c r="J27" s="2" t="b">
         <v>1</v>
@@ -2687,31 +2785,31 @@
     </row>
     <row r="28" spans="1:13" ht="166.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>231</v>
+        <v>180</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>265</v>
+        <v>206</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>292</v>
+        <v>445</v>
       </c>
       <c r="J28" s="2" t="b">
         <v>1</v>
@@ -2722,31 +2820,31 @@
     </row>
     <row r="29" spans="1:13" ht="162" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="F29" s="2" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>232</v>
+        <v>181</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>266</v>
+        <v>207</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>292</v>
+        <v>446</v>
       </c>
       <c r="J29" s="2" t="b">
         <v>1</v>
@@ -2757,31 +2855,31 @@
     </row>
     <row r="30" spans="1:13" ht="212.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>233</v>
+        <v>182</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>267</v>
+        <v>208</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>292</v>
+        <v>447</v>
       </c>
       <c r="J30" s="2" t="b">
         <v>1</v>
@@ -2792,31 +2890,31 @@
     </row>
     <row r="31" spans="1:13" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>234</v>
+        <v>183</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>268</v>
+        <v>209</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>292</v>
+        <v>448</v>
       </c>
       <c r="J31" s="2" t="b">
         <v>1</v>
@@ -2827,31 +2925,31 @@
     </row>
     <row r="32" spans="1:13" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>235</v>
+        <v>184</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>269</v>
+        <v>210</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>292</v>
+        <v>449</v>
       </c>
       <c r="J32" s="2" t="b">
         <v>1</v>
@@ -2862,31 +2960,31 @@
     </row>
     <row r="33" spans="1:13" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="F33" s="2" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>236</v>
+        <v>185</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>270</v>
+        <v>211</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>292</v>
+        <v>450</v>
       </c>
       <c r="J33" s="2" t="b">
         <v>1</v>
@@ -2897,31 +2995,31 @@
     </row>
     <row r="34" spans="1:13" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>237</v>
+        <v>186</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>271</v>
+        <v>212</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>292</v>
+        <v>451</v>
       </c>
       <c r="J34" s="2" t="b">
         <v>1</v>
@@ -2932,31 +3030,31 @@
     </row>
     <row r="35" spans="1:13" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>272</v>
+        <v>213</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>292</v>
+        <v>452</v>
       </c>
       <c r="J35" s="2" t="b">
         <v>1</v>
@@ -2967,31 +3065,31 @@
     </row>
     <row r="36" spans="1:13" ht="149.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>293</v>
+        <v>234</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>294</v>
+        <v>235</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>295</v>
+        <v>236</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>296</v>
+        <v>398</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>297</v>
+        <v>237</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>298</v>
+        <v>238</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>299</v>
+        <v>239</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>301</v>
+        <v>241</v>
       </c>
       <c r="J36" s="2" t="b">
         <v>1</v>
@@ -3002,31 +3100,31 @@
     </row>
     <row r="37" spans="1:13" ht="136.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>302</v>
+        <v>242</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>303</v>
+        <v>243</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>304</v>
+        <v>244</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>305</v>
+        <v>245</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>306</v>
+        <v>246</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>307</v>
+        <v>417</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>308</v>
+        <v>247</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>309</v>
+        <v>248</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>310</v>
+        <v>249</v>
       </c>
       <c r="J37" s="2" t="b">
         <v>1</v>
@@ -3037,31 +3135,31 @@
     </row>
     <row r="38" spans="1:13" ht="127.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>311</v>
+        <v>250</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>312</v>
+        <v>251</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>313</v>
+        <v>252</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>314</v>
+        <v>399</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>315</v>
+        <v>253</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>316</v>
+        <v>254</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>317</v>
+        <v>255</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>318</v>
+        <v>256</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>319</v>
+        <v>257</v>
       </c>
       <c r="J38" s="2" t="b">
         <v>1</v>
@@ -3072,31 +3170,31 @@
     </row>
     <row r="39" spans="1:13" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>320</v>
+        <v>258</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>321</v>
+        <v>259</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>322</v>
+        <v>260</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>323</v>
+        <v>261</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>324</v>
+        <v>262</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>325</v>
+        <v>263</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>326</v>
+        <v>264</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>327</v>
+        <v>265</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>292</v>
+        <v>453</v>
       </c>
       <c r="J39" s="2" t="b">
         <v>1</v>
@@ -3107,31 +3205,31 @@
     </row>
     <row r="40" spans="1:13" ht="126.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>328</v>
+        <v>266</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>329</v>
+        <v>267</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>330</v>
+        <v>268</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>331</v>
+        <v>269</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>332</v>
+        <v>270</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>333</v>
+        <v>271</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>334</v>
+        <v>272</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>335</v>
+        <v>273</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>292</v>
+        <v>454</v>
       </c>
       <c r="J40" s="2" t="b">
         <v>1</v>
@@ -3142,31 +3240,31 @@
     </row>
     <row r="41" spans="1:13" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>336</v>
+        <v>274</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>337</v>
+        <v>275</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>338</v>
+        <v>276</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>339</v>
+        <v>277</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>340</v>
+        <v>278</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>341</v>
+        <v>279</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>342</v>
+        <v>280</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>343</v>
+        <v>281</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>292</v>
+        <v>455</v>
       </c>
       <c r="J41" s="2" t="b">
         <v>1</v>
@@ -3177,31 +3275,31 @@
     </row>
     <row r="42" spans="1:13" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>344</v>
+        <v>282</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>345</v>
+        <v>283</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>346</v>
+        <v>284</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>347</v>
+        <v>285</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>348</v>
+        <v>286</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>349</v>
+        <v>287</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>351</v>
+        <v>289</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>292</v>
+        <v>456</v>
       </c>
       <c r="J42" s="2" t="b">
         <v>1</v>
@@ -3212,31 +3310,31 @@
     </row>
     <row r="43" spans="1:13" ht="156" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>352</v>
+        <v>290</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>353</v>
+        <v>291</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>354</v>
+        <v>292</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>355</v>
+        <v>293</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>356</v>
+        <v>294</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>357</v>
+        <v>295</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>358</v>
+        <v>296</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>359</v>
+        <v>297</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>292</v>
+        <v>457</v>
       </c>
       <c r="J43" s="2" t="b">
         <v>1</v>
@@ -3247,31 +3345,31 @@
     </row>
     <row r="44" spans="1:13" ht="156" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>360</v>
+        <v>298</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>361</v>
+        <v>299</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>362</v>
+        <v>300</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>363</v>
+        <v>301</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>364</v>
+        <v>302</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>365</v>
+        <v>416</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>366</v>
+        <v>303</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>367</v>
+        <v>304</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>292</v>
+        <v>458</v>
       </c>
       <c r="J44" s="2" t="b">
         <v>1</v>
@@ -3282,31 +3380,31 @@
     </row>
     <row r="45" spans="1:13" ht="78" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>368</v>
+        <v>305</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>369</v>
+        <v>306</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>370</v>
+        <v>307</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>371</v>
+        <v>308</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>372</v>
+        <v>309</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>373</v>
+        <v>310</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>374</v>
+        <v>311</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>375</v>
+        <v>312</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>292</v>
+        <v>459</v>
       </c>
       <c r="J45" s="2" t="b">
         <v>1</v>
@@ -3315,33 +3413,33 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="78" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>376</v>
+        <v>313</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>377</v>
+        <v>314</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>378</v>
+        <v>315</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>379</v>
+        <v>316</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>380</v>
+        <v>317</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>381</v>
+        <v>318</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>382</v>
+        <v>319</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>383</v>
+        <v>320</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>292</v>
+        <v>460</v>
       </c>
       <c r="J46" s="2" t="b">
         <v>1</v>
@@ -3352,31 +3450,31 @@
     </row>
     <row r="47" spans="1:13" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>384</v>
+        <v>321</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>385</v>
+        <v>322</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>386</v>
+        <v>323</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>387</v>
+        <v>324</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>388</v>
+        <v>325</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>390</v>
+        <v>326</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>391</v>
+        <v>327</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>292</v>
+        <v>461</v>
       </c>
       <c r="J47" s="2" t="b">
         <v>1</v>
@@ -3387,31 +3485,31 @@
     </row>
     <row r="48" spans="1:13" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>392</v>
+        <v>328</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>393</v>
+        <v>329</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>394</v>
+        <v>330</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>395</v>
+        <v>331</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>396</v>
+        <v>332</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>397</v>
+        <v>333</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>398</v>
+        <v>334</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>399</v>
+        <v>335</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>292</v>
+        <v>462</v>
       </c>
       <c r="J48" s="2" t="b">
         <v>1</v>
@@ -3422,31 +3520,31 @@
     </row>
     <row r="49" spans="1:13" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>400</v>
+        <v>336</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>401</v>
+        <v>337</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>402</v>
+        <v>338</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>403</v>
+        <v>339</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>405</v>
+        <v>340</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>406</v>
+        <v>341</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>292</v>
+        <v>463</v>
       </c>
       <c r="J49" s="2" t="b">
         <v>1</v>
@@ -3455,33 +3553,33 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="78" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>407</v>
+        <v>342</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>408</v>
+        <v>343</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>409</v>
+        <v>344</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>410</v>
+        <v>345</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>411</v>
+        <v>346</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>413</v>
+        <v>347</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>414</v>
+        <v>348</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>292</v>
+        <v>464</v>
       </c>
       <c r="J50" s="2" t="b">
         <v>1</v>
@@ -3490,33 +3588,33 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="1:13" ht="156" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>415</v>
+        <v>349</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>416</v>
+        <v>350</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>417</v>
+        <v>378</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>418</v>
+        <v>351</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>419</v>
+        <v>352</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>421</v>
+        <v>353</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>422</v>
+        <v>354</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>292</v>
+        <v>233</v>
       </c>
       <c r="J51" s="2" t="b">
         <v>1</v>
@@ -3525,33 +3623,33 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="1:13" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="78" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>423</v>
+        <v>355</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>424</v>
+        <v>356</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>425</v>
+        <v>357</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>426</v>
+        <v>358</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>427</v>
+        <v>359</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>428</v>
+        <v>360</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>429</v>
+        <v>361</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>430</v>
+        <v>362</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>292</v>
+        <v>465</v>
       </c>
       <c r="J52" s="2" t="b">
         <v>1</v>
@@ -3560,33 +3658,33 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="78" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>431</v>
+        <v>363</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>432</v>
+        <v>364</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>433</v>
+        <v>365</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>434</v>
+        <v>366</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>435</v>
+        <v>367</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>437</v>
+        <v>368</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>399</v>
+        <v>335</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>292</v>
+        <v>466</v>
       </c>
       <c r="J53" s="2" t="b">
         <v>1</v>
@@ -3613,7 +3711,9 @@
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
+      <c r="F55" s="5">
+        <v>0</v>
+      </c>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
